--- a/Calculo_Cua.xlsx
+++ b/Calculo_Cua.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/268cb83e38b446a7/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/268cb83e38b446a7/Escritorio/Mi_destino_Cuasapaz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D19D71FD-FE69-4DDA-A2E5-6278B8A71924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BD2FD5E-A0DC-4750-B2EE-7D09AA47BC98}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{D19D71FD-FE69-4DDA-A2E5-6278B8A71924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3251CC8B-88CF-426A-9DDC-5045EE81CAF8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BBD330D6-5910-4841-BF93-DD9278BD2E27}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>calculo de la nota</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Teoria</t>
   </si>
@@ -46,6 +43,15 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Calculo de la nota</t>
+  </si>
+  <si>
+    <t>Estudiante:</t>
+  </si>
+  <si>
+    <t>Vanessa Isabel Cuasapaz Pisco</t>
   </si>
 </sst>
 </file>
@@ -61,15 +67,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -77,13 +89,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,6 +195,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,59 +498,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC1EA4B-C93B-4FAE-89A6-68F95907EE31}">
-  <dimension ref="A2:C8"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C6" s="1">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1">
+        <f>(C6*7)/100</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <f>(B4*7)/100</f>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C7" s="1">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1">
+        <f>(C7*3)/100</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>75</v>
-      </c>
-      <c r="C5">
-        <f>(B5*3)/100</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <f>C4+C5</f>
+      <c r="C9" s="10"/>
+      <c r="D9" s="2">
+        <f>D6+D7</f>
         <v>7.85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C8" s="1">
-        <f>ROUND(C7,0)</f>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="2">
+        <f>ROUND(D9,0)</f>
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>